--- a/Documentação/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Documentação/17. Análise dos Eventos para cada Cenário.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\IMPACTA\FIX\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB819888-393C-4F6E-B5EA-6BEB417AA009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738F4558-7E85-4F12-A3E5-EFB8C1B12174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="14399" windowHeight="7372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -111,6 +111,9 @@
     <t>Cliente Delivery Solicita Pedido</t>
   </si>
   <si>
+    <t>Padaria Prepara Pedido</t>
+  </si>
+  <si>
     <t>x(5)</t>
   </si>
   <si>
@@ -148,16 +151,13 @@
   </si>
   <si>
     <t>(x)</t>
-  </si>
-  <si>
-    <t>Motoboy Solicita Pedido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,12 +215,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="11">
@@ -406,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -462,13 +456,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -717,7 +710,7 @@
   <dimension ref="A1:L996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -737,27 +730,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,10 +780,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1">
@@ -812,8 +805,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="10">
         <v>2</v>
       </c>
@@ -833,8 +826,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="33"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="10">
         <v>3</v>
       </c>
@@ -854,7 +847,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="33"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
@@ -877,16 +870,16 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="19"/>
@@ -900,35 +893,35 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="10">
         <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="21"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="10">
         <v>7</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="7"/>
@@ -936,37 +929,37 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
       <c r="G10" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="33"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="7"/>
@@ -974,17 +967,17 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="10">
         <v>10</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="7"/>
@@ -992,17 +985,17 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="10">
         <v>11</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="23" t="s">
@@ -1014,37 +1007,37 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="30"/>
+      <c r="B15" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="10">
         <v>14</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="27"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="28"/>
       <c r="F15" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="7"/>
@@ -2046,6 +2039,6 @@
     <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>